--- a/tables/bachelors/3rd_course/Cтуденты 2022-2023 уч. год.xlsx
+++ b/tables/bachelors/3rd_course/Cтуденты 2022-2023 уч. год.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Практика 3 к. бак." sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="325">
   <si>
     <t>ФИО студента</t>
   </si>
@@ -927,9 +927,6 @@
     <t>Павлов Евгений Александрович</t>
   </si>
   <si>
-    <t>с.н.с. НОЦГПН</t>
-  </si>
-  <si>
     <t>Производственная практика, преддипломная практика</t>
   </si>
   <si>
@@ -942,26 +939,620 @@
     <t>Гаврилова Дарья Александровна</t>
   </si>
   <si>
-    <t>№ 287-2 от 26.01.2023</t>
-  </si>
-  <si>
-    <t>№ 0743 от 10.02.2023</t>
-  </si>
-  <si>
-    <t>№ 1865-2 от 27.03.2023</t>
-  </si>
-  <si>
-    <t>№ 0106-2 от 17.01.2023</t>
-  </si>
-  <si>
-    <t>№ 0107-2 от 17.01.2023</t>
+    <t>«20» января 2023 г. №12-к</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«1» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>февраля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №8-ас</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«20» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«18» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«20» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №483</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«24» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №24.01.23/4-од</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«9» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>февраля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №12-ас</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«14» марта 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №277/лс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«17» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>марта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №286/лс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«31» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>января</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«7» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>февраля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №23-к</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«3» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>апреля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №66-к</t>
+    </r>
+  </si>
+  <si>
+    <t>ИМ СО РАН, Лаборатория алгебры</t>
+  </si>
+  <si>
+    <t>зам. директора</t>
+  </si>
+  <si>
+    <t>Инициалы</t>
+  </si>
+  <si>
+    <t>Вишневский О.В.</t>
+  </si>
+  <si>
+    <t>Барахнин В.Б.</t>
+  </si>
+  <si>
+    <t>Пальчунов Д.Е.</t>
+  </si>
+  <si>
+    <t>Савостьянов А.Н.</t>
+  </si>
+  <si>
+    <t>Хазанкин Г.Р.</t>
+  </si>
+  <si>
+    <t>Дучков А.А.</t>
+  </si>
+  <si>
+    <t>Марчук А.Г.</t>
+  </si>
+  <si>
+    <t>Свириденко Д.И.</t>
+  </si>
+  <si>
+    <t>Добрецов Н.Н.</t>
+  </si>
+  <si>
+    <t>Яскевич С.В.</t>
+  </si>
+  <si>
+    <t>Дудкин Ф.А.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1016,6 +1607,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1943,7 +2542,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
@@ -2055,7 +2654,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +2710,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2766,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -2223,7 +2822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2389,7 +2988,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -2501,7 +3100,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -2557,7 +3156,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -2613,7 +3212,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -2669,7 +3268,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
@@ -2725,7 +3324,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -2893,7 +3492,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -3005,7 +3604,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -3061,7 +3660,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -3117,7 +3716,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3173,7 +3772,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -3229,7 +3828,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -3285,7 +3884,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3940,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -3397,7 +3996,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3453,7 +4052,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -3509,7 +4108,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -3565,7 +4164,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -3621,7 +4220,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -3677,7 +4276,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -3789,7 +4388,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
@@ -3845,7 +4444,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -3901,7 +4500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -3957,7 +4556,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -4013,7 +4612,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -4069,7 +4668,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -4125,7 +4724,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -4181,7 +4780,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -4237,7 +4836,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -4293,7 +4892,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
@@ -4349,7 +4948,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -4405,7 +5004,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>69</v>
       </c>
@@ -4461,7 +5060,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
@@ -4517,7 +5116,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
@@ -4629,7 +5228,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>75</v>
       </c>
@@ -4685,7 +5284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
@@ -4741,7 +5340,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -4797,7 +5396,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
@@ -4853,7 +5452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>28</v>
       </c>
@@ -4909,7 +5508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>29</v>
       </c>
@@ -4965,7 +5564,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
@@ -5021,7 +5620,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
@@ -5189,7 +5788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -5245,7 +5844,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -5301,7 +5900,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>30</v>
       </c>
@@ -5357,7 +5956,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -5413,7 +6012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>57</v>
       </c>
@@ -5469,7 +6068,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -5544,8 +6143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5626,7 +6225,7 @@
         <v>219</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>6</v>
@@ -5668,7 +6267,7 @@
         <v>260</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -5682,7 +6281,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>84</v>
@@ -5724,7 +6323,7 @@
         <v>260</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -5738,7 +6337,7 @@
         <v>220</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>60</v>
@@ -5780,7 +6379,7 @@
         <v>260</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -5794,7 +6393,7 @@
         <v>221</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>88</v>
@@ -5836,7 +6435,7 @@
         <v>260</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -5850,7 +6449,7 @@
         <v>222</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>6</v>
@@ -5892,7 +6491,7 @@
         <v>260</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -5906,7 +6505,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>88</v>
@@ -5948,7 +6547,7 @@
         <v>260</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -5962,7 +6561,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>39</v>
@@ -5980,17 +6579,13 @@
         <v>194</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>260</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="17" t="s">
         <v>6</v>
       </c>
@@ -6004,7 +6599,7 @@
         <v>260</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6018,7 +6613,7 @@
         <v>220</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>39</v>
@@ -6060,7 +6655,7 @@
         <v>260</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6074,7 +6669,7 @@
         <v>223</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>84</v>
@@ -6116,7 +6711,7 @@
         <v>260</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,7 +6725,7 @@
         <v>224</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>39</v>
@@ -6172,7 +6767,7 @@
         <v>260</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6186,7 +6781,7 @@
         <v>223</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>9</v>
@@ -6228,7 +6823,7 @@
         <v>260</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6242,7 +6837,7 @@
         <v>219</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>6</v>
@@ -6284,7 +6879,7 @@
         <v>260</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6298,7 +6893,7 @@
         <v>225</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>102</v>
@@ -6340,7 +6935,7 @@
         <v>260</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6354,7 +6949,7 @@
         <v>220</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>39</v>
@@ -6396,7 +6991,7 @@
         <v>260</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6410,7 +7005,7 @@
         <v>222</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>88</v>
@@ -6452,7 +7047,7 @@
         <v>260</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6466,7 +7061,7 @@
         <v>220</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>39</v>
@@ -6508,7 +7103,7 @@
         <v>260</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6522,7 +7117,7 @@
         <v>220</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>39</v>
@@ -6564,7 +7159,7 @@
         <v>260</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,7 +7173,7 @@
         <v>222</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>6</v>
@@ -6620,7 +7215,7 @@
         <v>260</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6634,7 +7229,7 @@
         <v>219</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>88</v>
@@ -6676,7 +7271,7 @@
         <v>260</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6690,7 +7285,7 @@
         <v>227</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>60</v>
@@ -6732,7 +7327,7 @@
         <v>260</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6746,7 +7341,7 @@
         <v>222</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>60</v>
@@ -6788,7 +7383,7 @@
         <v>260</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6802,7 +7397,7 @@
         <v>226</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>60</v>
@@ -6844,7 +7439,7 @@
         <v>260</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6858,7 +7453,7 @@
         <v>221</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>102</v>
@@ -6900,7 +7495,7 @@
         <v>260</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6914,7 +7509,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>88</v>
@@ -6956,7 +7551,7 @@
         <v>260</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6970,20 +7565,18 @@
         <v>224</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>260</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
         <v>230</v>
       </c>
@@ -6991,7 +7584,7 @@
         <v>82</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>262</v>
@@ -7012,7 +7605,7 @@
         <v>266</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7026,7 +7619,7 @@
         <v>227</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>60</v>
@@ -7068,7 +7661,7 @@
         <v>260</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7082,7 +7675,7 @@
         <v>219</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>60</v>
@@ -7124,7 +7717,7 @@
         <v>260</v>
       </c>
       <c r="R28" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7138,7 +7731,7 @@
         <v>222</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>102</v>
@@ -7180,7 +7773,7 @@
         <v>260</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7194,7 +7787,7 @@
         <v>228</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>88</v>
@@ -7212,17 +7805,13 @@
         <v>194</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>260</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="17" t="s">
         <v>6</v>
       </c>
@@ -7236,7 +7825,7 @@
         <v>260</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7250,7 +7839,7 @@
         <v>227</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>84</v>
@@ -7268,7 +7857,7 @@
         <v>194</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>264</v>
@@ -7292,7 +7881,7 @@
         <v>260</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,7 +7895,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>6</v>
@@ -7348,7 +7937,7 @@
         <v>260</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7362,7 +7951,7 @@
         <v>228</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>39</v>
@@ -7404,7 +7993,7 @@
         <v>260</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7418,7 +8007,7 @@
         <v>224</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>6</v>
@@ -7460,7 +8049,7 @@
         <v>260</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7474,7 +8063,7 @@
         <v>222</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>84</v>
@@ -7516,7 +8105,7 @@
         <v>260</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7530,7 +8119,7 @@
         <v>228</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>80</v>
@@ -7572,7 +8161,7 @@
         <v>266</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7586,7 +8175,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>82</v>
@@ -7628,7 +8217,7 @@
         <v>266</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7642,7 +8231,7 @@
         <v>225</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>80</v>
@@ -7684,7 +8273,7 @@
         <v>266</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7698,7 +8287,7 @@
         <v>224</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>80</v>
@@ -7740,7 +8329,7 @@
         <v>266</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7754,7 +8343,7 @@
         <v>225</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>82</v>
@@ -7796,7 +8385,7 @@
         <v>266</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7810,7 +8399,7 @@
         <v>225</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>82</v>
@@ -7852,7 +8441,7 @@
         <v>266</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7866,7 +8455,7 @@
         <v>228</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>84</v>
@@ -7881,7 +8470,7 @@
         <v>266</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="J42" s="17" t="s">
         <v>84</v>
@@ -7896,7 +8485,7 @@
         <v>266</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="O42" s="17" t="s">
         <v>284</v>
@@ -7908,7 +8497,7 @@
         <v>260</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7922,7 +8511,7 @@
         <v>225</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>80</v>
@@ -7964,7 +8553,7 @@
         <v>266</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7978,7 +8567,7 @@
         <v>223</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>32</v>
@@ -8020,7 +8609,7 @@
         <v>260</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8034,7 +8623,7 @@
         <v>220</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>32</v>
@@ -8076,7 +8665,7 @@
         <v>260</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8090,7 +8679,7 @@
         <v>227</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>32</v>
@@ -8132,7 +8721,7 @@
         <v>260</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8146,7 +8735,7 @@
         <v>227</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>32</v>
@@ -8188,7 +8777,7 @@
         <v>260</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8202,7 +8791,7 @@
         <v>225</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>9</v>
@@ -8244,7 +8833,7 @@
         <v>266</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8258,7 +8847,7 @@
         <v>223</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>2</v>
@@ -8300,12 +8889,12 @@
         <v>260</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>191</v>
@@ -8314,7 +8903,7 @@
         <v>224</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>84</v>
@@ -8327,7 +8916,7 @@
       </c>
       <c r="H50" s="18"/>
       <c r="I50" s="17" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="J50" s="17" t="s">
         <v>84</v>
@@ -8340,7 +8929,7 @@
       </c>
       <c r="M50" s="18"/>
       <c r="N50" s="17" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="O50" s="17" t="s">
         <v>284</v>
@@ -8352,12 +8941,12 @@
         <v>260</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>191</v>
@@ -8366,7 +8955,7 @@
         <v>222</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>2</v>
@@ -8408,7 +8997,7 @@
         <v>260</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8426,8 +9015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:R30"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10136,8 +10725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10230,7 +10819,7 @@
         <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>209</v>
@@ -10259,8 +10848,8 @@
       <c r="Q2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>302</v>
+      <c r="R2" s="17" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10286,7 +10875,7 @@
         <v>260</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>194</v>
@@ -10315,8 +10904,8 @@
       <c r="Q3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>302</v>
+      <c r="R3" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10342,7 +10931,7 @@
         <v>260</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>194</v>
@@ -10398,7 +10987,7 @@
         <v>260</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>194</v>
@@ -10427,8 +11016,8 @@
       <c r="Q5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>302</v>
+      <c r="R5" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10454,7 +11043,7 @@
         <v>260</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>209</v>
@@ -10483,8 +11072,8 @@
       <c r="Q6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>302</v>
+      <c r="R6" s="17" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10510,7 +11099,7 @@
         <v>266</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>248</v>
@@ -10539,7 +11128,7 @@
       <c r="Q7" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="17" t="s">
         <v>302</v>
       </c>
     </row>
@@ -10566,7 +11155,7 @@
         <v>260</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>249</v>
@@ -10595,8 +11184,8 @@
       <c r="Q8" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>302</v>
+      <c r="R8" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10622,7 +11211,7 @@
         <v>260</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>194</v>
@@ -10651,8 +11240,8 @@
       <c r="Q9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>302</v>
+      <c r="R9" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10678,7 +11267,7 @@
         <v>260</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>194</v>
@@ -10707,8 +11296,8 @@
       <c r="Q10" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>302</v>
+      <c r="R10" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10734,7 +11323,7 @@
         <v>260</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>194</v>
@@ -10763,8 +11352,8 @@
       <c r="Q11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>302</v>
+      <c r="R11" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10790,7 +11379,7 @@
         <v>266</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>248</v>
@@ -10820,7 +11409,7 @@
         <v>266</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10846,7 +11435,7 @@
         <v>260</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>194</v>
@@ -10875,8 +11464,8 @@
       <c r="Q13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>302</v>
+      <c r="R13" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10902,7 +11491,7 @@
         <v>260</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>194</v>
@@ -10931,8 +11520,8 @@
       <c r="Q14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>302</v>
+      <c r="R14" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10958,7 +11547,7 @@
         <v>266</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>207</v>
@@ -10988,7 +11577,7 @@
         <v>260</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -11006,8 +11595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11353,7 +11942,7 @@
         <v>270</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -11372,7 +11961,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11537,18 +12126,18 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>266</v>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>266</v>
+        <v>291</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>266</v>
@@ -11669,10 +12258,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11681,7 +12270,7 @@
     <col min="2" max="16384" width="23.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>252</v>
       </c>
@@ -11697,8 +12286,11 @@
       <c r="E1" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -11714,8 +12306,11 @@
       <c r="E2" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>217</v>
       </c>
@@ -11731,8 +12326,11 @@
       <c r="E3" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -11748,8 +12346,11 @@
       <c r="E4" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -11765,8 +12366,11 @@
       <c r="E5" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>266</v>
       </c>
@@ -11783,7 +12387,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>202</v>
       </c>
@@ -11799,16 +12403,19 @@
       <c r="E7" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>262</v>
@@ -11816,8 +12423,11 @@
       <c r="E8" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>166</v>
       </c>
@@ -11833,8 +12443,11 @@
       <c r="E9" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>139</v>
       </c>
@@ -11850,8 +12463,11 @@
       <c r="E10" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>250</v>
       </c>
@@ -11866,6 +12482,46 @@
       </c>
       <c r="E11" s="2" t="s">
         <v>266</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
